--- a/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
+++ b/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\FoFObE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="19140" windowHeight="9270" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="19140" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="FoFObE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>FoFObE Fraction of Forests Owned by Entity</t>
   </si>
@@ -24,71 +29,122 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Fraction of Forest Owned</t>
+    <t>National Forest</t>
+  </si>
+  <si>
+    <t>Other public</t>
+  </si>
+  <si>
+    <t>Forest industry</t>
+  </si>
+  <si>
+    <t>Other private</t>
+  </si>
+  <si>
+    <t>Timber land</t>
+  </si>
+  <si>
+    <t>Reserved forest</t>
+  </si>
+  <si>
+    <t>Other forest</t>
+  </si>
+  <si>
+    <t>U.S.</t>
+  </si>
+  <si>
+    <t>Ownership of Forest Land (million hectares)</t>
+  </si>
+  <si>
+    <t>U.S. Forest Service</t>
+  </si>
+  <si>
+    <t>U.S. Forest Facts and Historical Trends</t>
+  </si>
+  <si>
+    <t>http://www.fia.fs.fed.us/library/briefings-summaries-overviews/docs/ForestFactsMetric.pdf</t>
+  </si>
+  <si>
+    <t>Page 6</t>
   </si>
   <si>
     <t>government</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>consumers</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Ownership of Forest Land </t>
-  </si>
-  <si>
-    <t>http://calfire.ca.gov/fcat/downloads/Forest_Carbon_Plan-ConceptPaper_Draft_PublicOutreach.pdf</t>
-  </si>
-  <si>
-    <t>CalFire</t>
-  </si>
-  <si>
-    <t>Forest Carbon Plan - Concept Paper</t>
-  </si>
-  <si>
-    <t>Of the approximately 33 million acres of forest in California, federal agencies (including the USDA Forest Service and USDI Bureau of Land Management and National Park Service) own a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nd manage 19 million acres (57%). State and local agencies including CalFire, local open space, park and water districts and land trusts own another 3%. </t>
-  </si>
-  <si>
-    <t>40% of California's forestland is owned by families, Native American tribes, or companies. Industrial timber companies own 5 million acres (14%). 9 million acres are owned by individuals  with nearly 90% of these owners having less than 50 acres of forest land.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of California </t>
-  </si>
-  <si>
-    <t>http://ucanr.edu/sites/forestry/California_forests/</t>
-  </si>
-  <si>
-    <t>California Forests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native american tribal lands are grouped with industrial timber. </t>
-  </si>
-  <si>
-    <t>Government share</t>
-  </si>
-  <si>
-    <t>Consumers/households</t>
-  </si>
-  <si>
-    <t>Industry</t>
+    <t>The amount of government-owned forest is provided in the table.</t>
+  </si>
+  <si>
+    <t>We assume that all privately-owned forest used for timber land is owned</t>
+  </si>
+  <si>
+    <t>by industry, and half of the remaining privately-owned forest land is owned</t>
+  </si>
+  <si>
+    <t>by industry.  The remainder is owned by consumers.</t>
+  </si>
+  <si>
+    <t>foreign entities</t>
+  </si>
+  <si>
+    <t>nonenergy industries</t>
+  </si>
+  <si>
+    <t>labor and consumers</t>
+  </si>
+  <si>
+    <t>electricity suppliers</t>
+  </si>
+  <si>
+    <t>coal suppliers</t>
+  </si>
+  <si>
+    <t>natural gas and petroleum suppliers</t>
+  </si>
+  <si>
+    <t>biomass and biofuel suppliers</t>
+  </si>
+  <si>
+    <t>other energy suppliers</t>
+  </si>
+  <si>
+    <t>Though some industry-owned timber land might be used to</t>
+  </si>
+  <si>
+    <t>produce biomass, but not all biomass is wood, and</t>
+  </si>
+  <si>
+    <t>much of the wood biomass is waste (bark, sawdust, chips, scrap,</t>
+  </si>
+  <si>
+    <t>and paper mill residues), which is not the main product</t>
+  </si>
+  <si>
+    <t>of the timber lands.  Accordingly, we assign timber land</t>
+  </si>
+  <si>
+    <t>ownership to "nonenergy industries" rather than assigning</t>
+  </si>
+  <si>
+    <t>a share to "biomass and biofuel suppliers."</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Fraction of Forest Owned (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,12 +168,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,15 +190,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -160,90 +218,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3683000"/>
-          <a:ext cx="3155950" cy="1435100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="806450" y="2025650"/>
-          <a:ext cx="3155950" cy="1435100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -289,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,7 +303,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,134 +512,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="B5">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <f>(57.4+2.1+1.1)/100</f>
-        <v>0.60599999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <f>9/33</f>
-        <v>0.27272727272727271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>20</v>
       </c>
-      <c r="B24">
-        <f>1-B22-B23</f>
-        <v>0.12127272727272731</v>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -669,52 +785,99 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="2" max="2" width="23.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <f>Data!$B$22</f>
-        <v>0.60599999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <f>SUM(Data!B3,Data!B7)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
+        <v>0.42384105960264901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <f>Data!$B$23</f>
-        <v>0.27272727272727271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5">
+        <f>SUM(Data!B11,Data!B16,Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
+        <v>0.52814569536423839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <f>Data!$B$24</f>
-        <v>0.12127272727272731</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
+        <f>(Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
+        <v>4.8013245033112585E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>